--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T15:16:58+00:00</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-patient-sans-INS-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-patient-sans-INS-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,37 +81,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'un patient sans INS qualifiée d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'un patient sans INS qualifiée d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Patient/Ipp</t>
@@ -473,39 +476,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -542,52 +545,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -624,39 +627,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -693,39 +696,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -762,26 +765,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -818,26 +821,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -874,14 +877,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-patient-sans-INS-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
